--- a/web/Result/result.xlsx
+++ b/web/Result/result.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MTBH\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E06284DB-543C-4C6D-9E51-67400DDB4AA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9325DE9-33E6-4F17-94F8-C38958594492}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{95F100BE-25EE-4455-8DC2-E1FF20172F38}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Student ID</t>
   </si>
@@ -53,21 +53,6 @@
   </si>
   <si>
     <t>Good</t>
-  </si>
-  <si>
-    <t>SE151205</t>
-  </si>
-  <si>
-    <t>SE151206</t>
-  </si>
-  <si>
-    <t>SE151207</t>
-  </si>
-  <si>
-    <t>SE151208</t>
-  </si>
-  <si>
-    <t>SE151209</t>
   </si>
 </sst>
 </file>
@@ -425,10 +410,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67278086-B844-43E2-AAFC-397476698D09}">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -461,76 +446,6 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3">
-        <v>9</v>
-      </c>
-      <c r="C3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4">
-        <v>10</v>
-      </c>
-      <c r="C4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5">
-        <v>11</v>
-      </c>
-      <c r="C5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6">
-        <v>12</v>
-      </c>
-      <c r="C6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D6">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7">
-        <v>13</v>
-      </c>
-      <c r="C7" t="s">
-        <v>5</v>
-      </c>
-      <c r="D7">
-        <v>6</v>
-      </c>
-    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/web/Result/result.xlsx
+++ b/web/Result/result.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MTBH\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9325DE9-33E6-4F17-94F8-C38958594492}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{557BC14B-BF41-4E10-BF06-89964A18491A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{95F100BE-25EE-4455-8DC2-E1FF20172F38}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
   <si>
     <t>Student ID</t>
   </si>
@@ -53,6 +53,9 @@
   </si>
   <si>
     <t>Good</t>
+  </si>
+  <si>
+    <t>SE151219</t>
   </si>
 </sst>
 </file>
@@ -410,10 +413,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67278086-B844-43E2-AAFC-397476698D09}">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -446,6 +449,20 @@
         <v>1</v>
       </c>
     </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
